--- a/SolutionFiles/Documentations/DevOps.xlsx
+++ b/SolutionFiles/Documentations/DevOps.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\DevOps-Roadmap\SolutionFiles\Documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7873A558-67B2-4C9F-97C1-3EB3D7090978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C092579B-0D49-46DB-B8F5-705B3C17A9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="113">
   <si>
     <t>Development</t>
   </si>
@@ -246,9 +246,6 @@
     <t>Can be run locally on Docker compose - Swarm</t>
   </si>
   <si>
-    <t>Deployments</t>
-  </si>
-  <si>
     <t>CI</t>
   </si>
   <si>
@@ -370,18 +367,6 @@
   </si>
   <si>
     <t>URL</t>
-  </si>
-  <si>
-    <t>1- Simple Deployment Scenario:</t>
-  </si>
-  <si>
-    <t>ARM Template to provision the required infra</t>
-  </si>
-  <si>
-    <t>Deploy the HR-UI-MVC app on a azure web app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI/CD </t>
   </si>
 </sst>
 </file>
@@ -1025,127 +1010,127 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -1154,10 +1139,10 @@
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
@@ -1217,7 +1202,7 @@
         <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>63</v>
@@ -1228,7 +1213,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -1242,7 +1227,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1266,12 +1251,7 @@
       <c r="B2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -1292,39 +1272,29 @@
       <c r="B7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D9" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="D8" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
